--- a/Document/wordsentenceCOUNT.xlsx
+++ b/Document/wordsentenceCOUNT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUSTINC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUSTINC\Desktop\SumMe\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WORD COUNT" sheetId="1" r:id="rId1"/>
@@ -298,10 +298,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,12 +599,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -644,6 +644,9 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
+      </c>
+      <c r="B6">
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,12 +995,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1037,6 +1040,9 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/Document/wordsentenceCOUNT.xlsx
+++ b/Document/wordsentenceCOUNT.xlsx
@@ -587,7 +587,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +652,9 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
+      </c>
+      <c r="B7">
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -983,7 +986,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,6 +1052,9 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">

--- a/Document/wordsentenceCOUNT.xlsx
+++ b/Document/wordsentenceCOUNT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="75">
   <si>
     <t>English1</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>SENTENCE COUNT</t>
+  </si>
+  <si>
+    <t>English69</t>
+  </si>
+  <si>
+    <t>English70</t>
   </si>
 </sst>
 </file>
@@ -584,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,21 +667,33 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>733</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9">
+        <v>373</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10">
+        <v>117</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11">
+        <v>490</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -686,290 +704,477 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13">
+        <v>728</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14">
+        <v>433</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
+      </c>
+      <c r="B70">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72">
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -983,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,21 +1265,33 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
+      <c r="B11">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1085,290 +1302,477 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
+      <c r="B13">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
+      </c>
+      <c r="B70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Document/wordsentenceCOUNT.xlsx
+++ b/Document/wordsentenceCOUNT.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr showObjects="none" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUSTINC\Desktop\SumMe\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5385"/>
   </bookViews>
   <sheets>
     <sheet name="WORD COUNT" sheetId="1" r:id="rId1"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,6 +630,9 @@
       <c r="B3">
         <v>31</v>
       </c>
+      <c r="C3">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1190,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,6 +1231,9 @@
       <c r="B3">
         <v>17</v>
       </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/Document/wordsentenceCOUNT.xlsx
+++ b/Document/wordsentenceCOUNT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WORD COUNT" sheetId="1" r:id="rId1"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>331</v>
       </c>
       <c r="C3">
         <v>49</v>
@@ -641,6 +641,9 @@
       <c r="B4">
         <v>400</v>
       </c>
+      <c r="C4">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -649,6 +652,9 @@
       <c r="B5">
         <v>206</v>
       </c>
+      <c r="C5">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -657,6 +663,9 @@
       <c r="B6">
         <v>284</v>
       </c>
+      <c r="C6">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -665,6 +674,9 @@
       <c r="B7">
         <v>460</v>
       </c>
+      <c r="C7">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -673,6 +685,9 @@
       <c r="B8">
         <v>733</v>
       </c>
+      <c r="C8">
+        <v>81</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -681,6 +696,9 @@
       <c r="B9">
         <v>373</v>
       </c>
+      <c r="C9">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -689,6 +707,9 @@
       <c r="B10">
         <v>117</v>
       </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -697,6 +718,9 @@
       <c r="B11">
         <v>490</v>
       </c>
+      <c r="C11">
+        <v>76</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -710,6 +734,9 @@
       <c r="B13">
         <v>728</v>
       </c>
+      <c r="C13">
+        <v>102</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -718,6 +745,9 @@
       <c r="B14">
         <v>433</v>
       </c>
+      <c r="C14">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -726,6 +756,9 @@
       <c r="B15">
         <v>85</v>
       </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -734,445 +767,610 @@
       <c r="B16">
         <v>1039</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
         <v>608</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
         <v>326</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
         <v>772</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
         <v>663</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
         <v>713</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
         <v>684</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>601</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
         <v>749</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
         <v>396</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
         <v>631</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28">
         <v>239</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
         <v>321</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
         <v>525</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
         <v>526</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32">
         <v>431</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33">
         <v>819</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34">
         <v>264</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35">
         <v>363</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36">
         <v>153</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37">
         <v>324</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38">
         <v>209</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39">
         <v>823</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41">
         <v>587</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42">
         <v>652</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43">
         <v>271</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44">
         <v>413</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45">
         <v>758</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46">
         <v>414</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47">
         <v>579</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48">
         <v>233</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49">
         <v>365</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50">
         <v>492</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51">
         <v>922</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52">
         <v>667</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53">
         <v>411</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54">
         <v>403</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55">
         <v>770</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56">
         <v>476</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57">
         <v>372</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
       <c r="B58">
         <v>527</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
       <c r="B59">
         <v>662</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60">
         <v>230</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61">
         <v>343</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62">
         <v>849</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63">
         <v>145</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
       <c r="B64">
         <v>391</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="B65">
         <v>564</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="B66">
         <v>425</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
       <c r="B67">
         <v>285</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
       <c r="B68">
         <v>297</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
       <c r="B69">
         <v>467</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70">
         <v>226</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71">
         <v>744</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -1193,8 +1391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,6 +1440,9 @@
       <c r="B4">
         <v>15</v>
       </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1250,6 +1451,9 @@
       <c r="B5">
         <v>10</v>
       </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1258,6 +1462,9 @@
       <c r="B6">
         <v>21</v>
       </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1266,6 +1473,9 @@
       <c r="B7">
         <v>26</v>
       </c>
+      <c r="C7">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1274,6 +1484,9 @@
       <c r="B8">
         <v>29</v>
       </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1282,6 +1495,9 @@
       <c r="B9">
         <v>16</v>
       </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1290,6 +1506,9 @@
       <c r="B10">
         <v>7</v>
       </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1298,6 +1517,9 @@
       <c r="B11">
         <v>26</v>
       </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1311,6 +1533,9 @@
       <c r="B13">
         <v>31</v>
       </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1319,6 +1544,9 @@
       <c r="B14">
         <v>23</v>
       </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1327,6 +1555,9 @@
       <c r="B15">
         <v>3</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1335,445 +1566,610 @@
       <c r="B16">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33">
         <v>42</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39">
         <v>42</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42">
         <v>29</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51">
         <v>38</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52">
         <v>124</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55">
         <v>52</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56">
         <v>26</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57">
         <v>19</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
       <c r="B58">
         <v>28</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
       <c r="B59">
         <v>41</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62">
         <v>47</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63">
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
       <c r="B64">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="B65">
         <v>23</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="B66">
         <v>27</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
       <c r="B67">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
       <c r="B68">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
       <c r="B69">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>73</v>
       </c>
       <c r="B71">
         <v>54</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>74</v>
       </c>

--- a/Document/wordsentenceCOUNT.xlsx
+++ b/Document/wordsentenceCOUNT.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showObjects="none" defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUSTINC\Desktop\SumMe\Document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr showObjects="none"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5385" activeTab="1"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="WORD COUNT" sheetId="1" r:id="rId1"/>
     <sheet name="SENTENCE COUNT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -255,8 +250,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +311,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -335,7 +398,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FBFBFB"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -370,7 +433,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,7 +468,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -582,21 +645,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -604,7 +667,7 @@
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
@@ -612,7 +675,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -623,7 +686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -634,7 +697,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -645,7 +708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -656,7 +719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -667,7 +730,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -678,7 +741,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -689,7 +752,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -700,7 +763,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -711,7 +774,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -722,12 +785,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -738,7 +801,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -749,7 +812,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -760,7 +823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -771,7 +834,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -782,7 +845,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -793,7 +856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -804,7 +867,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -815,7 +878,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -826,7 +889,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -837,7 +900,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -848,7 +911,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -859,7 +922,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -870,7 +933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -881,12 +944,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -897,7 +960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -908,7 +971,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -919,7 +982,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -930,7 +993,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -941,7 +1004,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -952,7 +1015,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -963,7 +1026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -974,7 +1037,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -985,7 +1048,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -996,7 +1059,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1007,7 +1070,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1018,7 +1081,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1029,7 +1092,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1040,7 +1103,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1051,7 +1114,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1062,7 +1125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1073,7 +1136,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1084,7 +1147,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1095,7 +1158,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1106,7 +1169,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1117,7 +1180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1128,7 +1191,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1139,7 +1202,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1150,7 +1213,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1161,7 +1224,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1172,7 +1235,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1183,7 +1246,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1194,7 +1257,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -1205,7 +1268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -1216,7 +1279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -1227,7 +1290,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -1238,7 +1301,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -1249,7 +1312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1260,7 +1323,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -1271,7 +1334,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -1282,7 +1345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1293,7 +1356,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -1304,7 +1367,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -1315,7 +1378,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -1326,7 +1389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -1337,7 +1400,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -1348,7 +1411,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -1359,7 +1422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -1370,7 +1433,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -1388,14 +1451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -1403,7 +1466,7 @@
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
@@ -1411,7 +1474,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1422,7 +1485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1432,8 +1495,11 @@
       <c r="C3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0.35289999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1443,8 +1509,11 @@
       <c r="C4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1454,8 +1523,11 @@
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1465,8 +1537,11 @@
       <c r="C6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0.38090000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1476,8 +1551,11 @@
       <c r="C7">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1487,8 +1565,11 @@
       <c r="C8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0.37930000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1498,8 +1579,11 @@
       <c r="C9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1509,8 +1593,11 @@
       <c r="C10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>0.42849999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1520,13 +1607,16 @@
       <c r="C11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>0.3846</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1536,8 +1626,11 @@
       <c r="C13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>0.38700000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1547,8 +1640,11 @@
       <c r="C14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>0.52170000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1558,8 +1654,11 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1569,8 +1668,11 @@
       <c r="C16">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>0.43390000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1580,8 +1682,11 @@
       <c r="C17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1591,8 +1696,11 @@
       <c r="C18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0.29409999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1602,8 +1710,11 @@
       <c r="C19">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>0.45710000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1613,8 +1724,11 @@
       <c r="C20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0.44819999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1624,8 +1738,11 @@
       <c r="C21">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0.3488</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1635,8 +1752,11 @@
       <c r="C22">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1646,8 +1766,11 @@
       <c r="C23">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>0.37930000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1657,8 +1780,11 @@
       <c r="C24">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0.57569999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1668,8 +1794,11 @@
       <c r="C25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0.35709999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1679,13 +1808,16 @@
       <c r="C26">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>0.51849999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1695,8 +1827,11 @@
       <c r="C28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1706,8 +1841,11 @@
       <c r="C29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0.44440000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1717,8 +1855,11 @@
       <c r="C30">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>0.36359999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1728,8 +1869,11 @@
       <c r="C31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>0.35709999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1739,8 +1883,11 @@
       <c r="C32">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1750,8 +1897,11 @@
       <c r="C33">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0.4047</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1761,8 +1911,11 @@
       <c r="C34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>0.42849999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1772,8 +1925,11 @@
       <c r="C35">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1783,8 +1939,11 @@
       <c r="C36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1794,8 +1953,11 @@
       <c r="C37">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>0.46150000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1805,8 +1967,11 @@
       <c r="C38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>0.45450000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1816,8 +1981,11 @@
       <c r="C39">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1827,8 +1995,11 @@
       <c r="C40">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1838,8 +2009,11 @@
       <c r="C41">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1849,8 +2023,11 @@
       <c r="C42">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>0.41370000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1860,8 +2037,11 @@
       <c r="C43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1871,8 +2051,11 @@
       <c r="C44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>0.29409999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1882,8 +2065,11 @@
       <c r="C45">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -1893,8 +2079,11 @@
       <c r="C46">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1904,8 +2093,11 @@
       <c r="C47">
         <v>12</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1915,8 +2107,11 @@
       <c r="C48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>0.28570000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1926,8 +2121,11 @@
       <c r="C49">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1937,8 +2135,11 @@
       <c r="C50">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1948,8 +2149,11 @@
       <c r="C51">
         <v>19</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1959,8 +2163,11 @@
       <c r="C52">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>0.1048</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1970,8 +2177,11 @@
       <c r="C53">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1981,8 +2191,11 @@
       <c r="C54">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1992,8 +2205,11 @@
       <c r="C55">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>0.34610000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2003,8 +2219,11 @@
       <c r="C56">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>0.30759999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2014,8 +2233,11 @@
       <c r="C57">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>0.47360000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2025,8 +2247,11 @@
       <c r="C58">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>0.39279999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2036,8 +2261,11 @@
       <c r="C59">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>0.34139999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2047,8 +2275,11 @@
       <c r="C60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2058,8 +2289,11 @@
       <c r="C61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>0.53839999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2069,8 +2303,11 @@
       <c r="C62">
         <v>21</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>0.44679999999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2080,8 +2317,11 @@
       <c r="C63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>0.28570000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2091,8 +2331,11 @@
       <c r="C64">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2102,8 +2345,11 @@
       <c r="C65">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>0.52170000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2113,8 +2359,11 @@
       <c r="C66">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>0.33329999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2124,8 +2373,11 @@
       <c r="C67">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>0.66659999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2135,8 +2387,11 @@
       <c r="C68">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>0.63629999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2146,8 +2401,11 @@
       <c r="C69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>0.44440000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2157,8 +2415,11 @@
       <c r="C70">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>0.35709999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -2168,8 +2429,11 @@
       <c r="C71">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>0.20369999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>74</v>
       </c>
